--- a/examples/example-timetable_school-org.xlsx
+++ b/examples/example-timetable_school-org.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C46A4E-EEF3-46F5-A70D-A773227B3695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B78086A-79C8-4E64-B9B1-AAA36DE7C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" activeTab="2" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="zones" sheetId="2" r:id="rId1"/>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F2F0E7-F0BD-41CF-9D4D-8C5E4A647097}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10423,7 +10423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5B3EE4-260C-44A7-804B-A5EAF3390116}">
   <dimension ref="A1:AV19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
